--- a/01_Tableau & Excel/jun25.xlsx
+++ b/01_Tableau & Excel/jun25.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alakh Pandya\Desktop\Batches\24_Ayush_One_to_one\01_Tableau &amp; Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D5C313-4106-4D25-9126-865E7A80DEDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AD93F0A-4778-4BDC-B78A-22E3A36DB1C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{65B08B18-C9BC-4687-A3BE-1994E4BC8EA6}"/>
   </bookViews>
@@ -465,8 +465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFD18B13-F5FE-4198-B933-1F2BB3FE566A}">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -482,7 +482,7 @@
     <col min="10" max="10" width="17.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="76.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="63.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
@@ -553,11 +553,19 @@
       <c r="H2">
         <v>55</v>
       </c>
+      <c r="I2" t="str">
+        <f>IF(H2&gt;50, "Qualified", "Not Qualified")</f>
+        <v>Qualified</v>
+      </c>
       <c r="J2">
         <v>1</v>
       </c>
       <c r="K2" t="s">
         <v>12</v>
+      </c>
+      <c r="L2">
+        <f>IF(H2&gt;50, F2+$G$2, F2)</f>
+        <v>84</v>
       </c>
       <c r="M2" s="1">
         <f>SUM(J2:J15)</f>
@@ -582,6 +590,14 @@
       <c r="H3">
         <v>68</v>
       </c>
+      <c r="I3" t="str">
+        <f t="shared" ref="I3:I18" si="1">IF(H3&gt;50, "Qualified", "Not Qualified")</f>
+        <v>Qualified</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L15" si="2">IF(H3&gt;50, F3+$G$2, F3)</f>
+        <v>61</v>
+      </c>
       <c r="M3" s="1" t="s">
         <v>13</v>
       </c>
@@ -597,7 +613,7 @@
         <v>30</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D15" si="1">B4+C4</f>
+        <f t="shared" ref="D4:D15" si="3">B4+C4</f>
         <v>44</v>
       </c>
       <c r="F4">
@@ -606,6 +622,14 @@
       </c>
       <c r="H4">
         <v>77</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" si="1"/>
+        <v>Qualified</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="2"/>
+        <v>74</v>
       </c>
       <c r="M4" s="1">
         <f>COUNT(C2:C15)</f>
@@ -620,7 +644,7 @@
         <v>15</v>
       </c>
       <c r="D5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="F5">
@@ -630,8 +654,16 @@
       <c r="H5">
         <v>98</v>
       </c>
+      <c r="I5" t="str">
+        <f t="shared" si="1"/>
+        <v>Qualified</v>
+      </c>
       <c r="J5">
         <v>1</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="2"/>
+        <v>45</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>14</v>
@@ -648,7 +680,7 @@
         <v>32</v>
       </c>
       <c r="D6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>57</v>
       </c>
       <c r="F6">
@@ -658,11 +690,19 @@
       <c r="H6">
         <v>83</v>
       </c>
+      <c r="I6" t="str">
+        <f t="shared" si="1"/>
+        <v>Qualified</v>
+      </c>
       <c r="J6">
         <v>1</v>
       </c>
       <c r="K6" t="s">
         <v>12</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="2"/>
+        <v>87</v>
       </c>
       <c r="M6" s="1"/>
     </row>
@@ -674,7 +714,7 @@
         <v>34</v>
       </c>
       <c r="D7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
       <c r="F7">
@@ -684,11 +724,19 @@
       <c r="H7">
         <v>92</v>
       </c>
+      <c r="I7" t="str">
+        <f t="shared" si="1"/>
+        <v>Qualified</v>
+      </c>
       <c r="J7">
         <v>1</v>
       </c>
       <c r="K7" t="s">
         <v>12</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="2"/>
+        <v>64</v>
       </c>
       <c r="M7" s="1"/>
     </row>
@@ -703,7 +751,7 @@
         <v>21</v>
       </c>
       <c r="D8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>41</v>
       </c>
       <c r="F8">
@@ -713,8 +761,16 @@
       <c r="H8">
         <v>52</v>
       </c>
+      <c r="I8" t="str">
+        <f t="shared" si="1"/>
+        <v>Qualified</v>
+      </c>
       <c r="J8">
         <v>1</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="2"/>
+        <v>71</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>15</v>
@@ -728,7 +784,7 @@
         <v>25</v>
       </c>
       <c r="D9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="F9">
@@ -737,6 +793,14 @@
       </c>
       <c r="H9">
         <v>33</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="1"/>
+        <v>Not Qualified</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="2"/>
+        <v>45</v>
       </c>
       <c r="M9" s="1">
         <f>COUNTA(K2:K15)</f>
@@ -754,7 +818,7 @@
         <v>12</v>
       </c>
       <c r="D10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="F10">
@@ -764,11 +828,19 @@
       <c r="H10">
         <v>8</v>
       </c>
+      <c r="I10" t="str">
+        <f t="shared" si="1"/>
+        <v>Not Qualified</v>
+      </c>
       <c r="J10">
         <v>1</v>
       </c>
       <c r="K10" t="s">
         <v>12</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="2"/>
+        <v>51</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>16</v>
@@ -785,7 +857,7 @@
         <v>11</v>
       </c>
       <c r="D11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>37</v>
       </c>
       <c r="F11">
@@ -794,6 +866,14 @@
       </c>
       <c r="H11">
         <v>42</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="1"/>
+        <v>Not Qualified</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="2"/>
+        <v>57</v>
       </c>
       <c r="M11" s="1">
         <f>COUNTIF(H2:H15, "&gt;=70")</f>
@@ -805,7 +885,7 @@
         <v>11</v>
       </c>
       <c r="D12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F12">
@@ -815,11 +895,19 @@
       <c r="H12">
         <v>49</v>
       </c>
+      <c r="I12" t="str">
+        <f t="shared" si="1"/>
+        <v>Not Qualified</v>
+      </c>
       <c r="J12">
         <v>1</v>
       </c>
       <c r="K12" t="s">
         <v>12</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="2"/>
+        <v>20</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>17</v>
@@ -836,7 +924,7 @@
         <v>27</v>
       </c>
       <c r="D13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>51</v>
       </c>
       <c r="F13">
@@ -846,8 +934,16 @@
       <c r="H13">
         <v>39</v>
       </c>
+      <c r="I13" t="str">
+        <f t="shared" si="1"/>
+        <v>Not Qualified</v>
+      </c>
       <c r="K13" t="s">
         <v>12</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="2"/>
+        <v>71</v>
       </c>
       <c r="M13" s="2">
         <f>COUNTIF(H:H, 8)</f>
@@ -862,7 +958,7 @@
         <v>29</v>
       </c>
       <c r="D14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
       <c r="F14">
@@ -872,11 +968,19 @@
       <c r="H14">
         <v>90</v>
       </c>
+      <c r="I14" t="str">
+        <f t="shared" si="1"/>
+        <v>Qualified</v>
+      </c>
       <c r="J14">
         <v>1</v>
       </c>
       <c r="K14" t="s">
         <v>12</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="2"/>
+        <v>59</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>18</v>
@@ -893,7 +997,7 @@
         <v>9</v>
       </c>
       <c r="D15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
       <c r="F15">
@@ -903,11 +1007,19 @@
       <c r="H15">
         <v>80</v>
       </c>
+      <c r="I15" t="str">
+        <f t="shared" si="1"/>
+        <v>Qualified</v>
+      </c>
       <c r="J15">
         <v>1</v>
       </c>
       <c r="K15" t="s">
         <v>12</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="2"/>
+        <v>59</v>
       </c>
       <c r="M15" s="1">
         <f>COUNTIFS(B2:B15, "&gt;=25", C2:C15, "&lt;=20")</f>
@@ -935,7 +1047,10 @@
         <f>SUM(D2:D15)</f>
         <v>478</v>
       </c>
-      <c r="M17" s="1"/>
+      <c r="M17" s="1">
+        <f>SUMIF(H2:H15, "&gt;=70", F2:F15)</f>
+        <v>328</v>
+      </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -957,7 +1072,10 @@
         <f>AVERAGE(C2:C15)</f>
         <v>24.363636363636363</v>
       </c>
-      <c r="M19" s="1"/>
+      <c r="M19" s="1">
+        <f>SUMIFS(F2:F15, H2:H15, "&gt;=70", J2:J15, 1)</f>
+        <v>264</v>
+      </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G23" t="s">
